--- a/BackTest/2020-01-22 BackTest WTC.xlsx
+++ b/BackTest/2020-01-22 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2497.86934763721</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>6897.66734763721</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>478.9</v>
@@ -521,7 +521,7 @@
         <v>1301.30944763721</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>487.7</v>
@@ -562,9 +562,11 @@
         <v>3303.30944763721</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>486.2</v>
+      </c>
       <c r="J5" t="n">
         <v>478.9</v>
       </c>
@@ -601,7 +603,7 @@
         <v>3303.30944763721</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>487</v>
@@ -638,9 +640,11 @@
         <v>3021.67254763721</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>487</v>
+      </c>
       <c r="J7" t="n">
         <v>487</v>
       </c>
@@ -677,9 +681,11 @@
         <v>3087.54584763721</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>480</v>
+      </c>
       <c r="J8" t="n">
         <v>487</v>
       </c>
@@ -716,7 +722,7 @@
         <v>1164.63014763721</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>484.7</v>
@@ -757,7 +763,7 @@
         <v>1165.73014763721</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>482</v>
@@ -798,7 +804,7 @@
         <v>-20067.30585236279</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>483.6</v>
@@ -839,7 +845,7 @@
         <v>-20067.30585236279</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>473</v>
@@ -880,7 +886,7 @@
         <v>-20067.30585236279</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>473</v>
@@ -921,7 +927,7 @@
         <v>-20060.89570348462</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>473</v>
@@ -962,7 +968,7 @@
         <v>-20065.89570348462</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>476.9</v>
@@ -1003,9 +1009,11 @@
         <v>-20057.16650348462</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>472.5</v>
+      </c>
       <c r="J16" t="n">
         <v>487</v>
       </c>
@@ -1042,9 +1050,11 @@
         <v>-11915.99300348462</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>476.9</v>
+      </c>
       <c r="J17" t="n">
         <v>487</v>
       </c>
@@ -1081,9 +1091,11 @@
         <v>-11914.51080348462</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>480.3</v>
+      </c>
       <c r="J18" t="n">
         <v>487</v>
       </c>
@@ -1120,9 +1132,11 @@
         <v>-11942.66720348462</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>482.8</v>
+      </c>
       <c r="J19" t="n">
         <v>487</v>
       </c>
@@ -1159,9 +1173,11 @@
         <v>-11941.56720348462</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>477.2</v>
+      </c>
       <c r="J20" t="n">
         <v>487</v>
       </c>
@@ -1198,9 +1214,11 @@
         <v>52037.92549651538</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>482</v>
+      </c>
       <c r="J21" t="n">
         <v>487</v>
       </c>
@@ -2719,7 +2737,7 @@
         <v>205767.5677934602</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
@@ -3343,7 +3361,7 @@
         <v>224433.0193821054</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
@@ -3382,7 +3400,7 @@
         <v>223681.0057821053</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
@@ -6736,7 +6754,7 @@
         <v>239966.6744950535</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
@@ -7438,7 +7456,7 @@
         <v>211621.8815950535</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
@@ -7516,7 +7534,7 @@
         <v>246523.9562950535</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
@@ -7867,7 +7885,7 @@
         <v>244664.1922530091</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
@@ -7875,13 +7893,15 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>1.075082135523614</v>
+      </c>
+      <c r="M192" t="n">
+        <v>1.018793067446231</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7906,17 +7926,11 @@
         <v>244477.7877530091</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>487</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7948,14 +7962,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>487</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7984,17 +7992,11 @@
         <v>280742.2876530091</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>487</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8026,14 +8028,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>487</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8065,14 +8061,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>487</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8104,14 +8094,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>487</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8143,14 +8127,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>487</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8182,14 +8160,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>487</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8218,17 +8190,11 @@
         <v>279425.0227530091</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>487</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8257,17 +8223,11 @@
         <v>280425.0227530091</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>487</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8296,17 +8256,11 @@
         <v>280844.0047530091</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>487</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8335,17 +8289,11 @@
         <v>280844.0047530091</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>487</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8377,14 +8325,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>487</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8416,14 +8358,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>487</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8455,14 +8391,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>487</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8494,14 +8424,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>487</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8533,14 +8457,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>487</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8572,14 +8490,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>487</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8608,17 +8520,11 @@
         <v>277133.8681530091</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>487</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8647,17 +8553,11 @@
         <v>278299.9061530091</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>487</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8686,17 +8586,11 @@
         <v>278299.9061530091</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>487</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8725,17 +8619,11 @@
         <v>277810.6449937726</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>487</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8764,17 +8652,11 @@
         <v>277809.6799937726</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>487</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8803,17 +8685,11 @@
         <v>275100.7225937726</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>487</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8842,17 +8718,11 @@
         <v>276340.0183937726</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>487</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8881,17 +8751,11 @@
         <v>276310.0183937726</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>487</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8920,17 +8784,11 @@
         <v>277455.7275937726</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>487</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8959,17 +8817,11 @@
         <v>280823.2594937726</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>487</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8998,17 +8850,11 @@
         <v>285392.2601937726</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>487</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9037,17 +8883,11 @@
         <v>285192.2601937726</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>487</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9076,17 +8916,11 @@
         <v>286127.7168937725</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>487</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9115,17 +8949,11 @@
         <v>289486.9261937725</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>487</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9154,17 +8982,11 @@
         <v>301829.9591937725</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>487</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9193,17 +9015,11 @@
         <v>301829.9591937725</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>487</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9232,17 +9048,11 @@
         <v>309276.426141631</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>487</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9271,17 +9081,11 @@
         <v>303714.0623474664</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>487</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9310,17 +9114,11 @@
         <v>305884.8940777201</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>487</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9349,17 +9147,11 @@
         <v>305884.8940777201</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>487</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9388,17 +9180,11 @@
         <v>305417.7710777201</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>487</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9427,17 +9213,11 @@
         <v>305399.3048777201</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>487</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9466,17 +9246,11 @@
         <v>304786.4050777201</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>487</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9505,17 +9279,11 @@
         <v>304855.3901777201</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>487</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9544,17 +9312,11 @@
         <v>304855.3901777201</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>487</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9583,17 +9345,11 @@
         <v>301303.2043777201</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>487</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9622,17 +9378,11 @@
         <v>330643.547643707</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>487</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9661,17 +9411,11 @@
         <v>329227.517643707</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>487</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9700,17 +9444,11 @@
         <v>328423.970843707</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>487</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9739,17 +9477,11 @@
         <v>328423.970843707</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>487</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9778,17 +9510,11 @@
         <v>324063.622743707</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>487</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9817,17 +9543,11 @@
         <v>324064.859243707</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>487</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9856,17 +9576,11 @@
         <v>324042.440543707</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>487</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9895,17 +9609,11 @@
         <v>316960.660343707</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>487</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9934,17 +9642,11 @@
         <v>318346.791443707</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>487</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9973,17 +9675,11 @@
         <v>318346.791443707</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>487</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10012,17 +9708,11 @@
         <v>314520.646043707</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>487</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10051,17 +9741,11 @@
         <v>334242.3610437071</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>487</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10090,17 +9774,11 @@
         <v>330690.9028437071</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>487</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10129,17 +9807,11 @@
         <v>330688.9028437071</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>487</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10168,17 +9840,11 @@
         <v>331018.7978437071</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>487</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10207,17 +9873,11 @@
         <v>331008.7978437071</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>487</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10246,17 +9906,11 @@
         <v>330980.0708437071</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>487</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10285,17 +9939,11 @@
         <v>319073.6101437071</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>487</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10324,17 +9972,11 @@
         <v>328530.8678437071</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>487</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10363,17 +10005,11 @@
         <v>380462.4134960681</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>487</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10402,17 +10038,11 @@
         <v>388099.4262960681</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>487</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10441,17 +10071,11 @@
         <v>393079.5330960681</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>487</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10480,17 +10104,11 @@
         <v>388815.8687960681</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>487</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10519,17 +10137,11 @@
         <v>356748.1884960681</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>487</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10558,17 +10170,11 @@
         <v>353240.5708960681</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>487</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10597,17 +10203,11 @@
         <v>360336.3529960681</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>487</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10636,17 +10236,11 @@
         <v>358314.0479960681</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>487</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10675,17 +10269,11 @@
         <v>358078.2681960681</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>487</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10714,17 +10302,11 @@
         <v>373861.9152960681</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>487</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10753,17 +10335,11 @@
         <v>365691.2317960681</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>487</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10792,17 +10368,11 @@
         <v>365704.5012960681</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>487</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10831,17 +10401,11 @@
         <v>344080.9867960681</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>487</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10870,17 +10434,11 @@
         <v>344995.3792960682</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>487</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10909,17 +10467,11 @@
         <v>363374.2518960682</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>487</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10948,17 +10500,11 @@
         <v>437753.8562960682</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>487</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10990,14 +10536,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>487</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11026,17 +10566,11 @@
         <v>422096.0418960682</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>487</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11065,17 +10599,11 @@
         <v>427571.1383960682</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>487</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11104,17 +10632,11 @@
         <v>424302.8039960682</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>487</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11143,17 +10665,11 @@
         <v>417926.0270960682</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>487</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11182,17 +10698,11 @@
         <v>400419.4171960682</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>487</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11221,17 +10731,11 @@
         <v>394965.2382960682</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>487</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11260,17 +10764,11 @@
         <v>398315.4475960682</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>487</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11299,17 +10797,11 @@
         <v>398407.1058960682</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>487</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11338,17 +10830,11 @@
         <v>407819.2051960682</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>487</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11377,17 +10863,11 @@
         <v>407817.4198960682</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>487</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11416,17 +10896,11 @@
         <v>412002.2440960682</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>487</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11455,17 +10929,11 @@
         <v>413490.2440960682</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>487</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11494,17 +10962,11 @@
         <v>413489.2440960682</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>487</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11533,17 +10995,11 @@
         <v>396699.6483960682</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>487</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11572,17 +11028,11 @@
         <v>397257.2566960682</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>487</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11611,17 +11061,11 @@
         <v>423414.9967960682</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>487</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11650,17 +11094,11 @@
         <v>423401.9684960682</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>487</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11689,17 +11127,11 @@
         <v>422847.8553960682</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>487</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11728,17 +11160,11 @@
         <v>424154.0135960682</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>487</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11767,17 +11193,11 @@
         <v>429665.4713960682</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>487</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11806,17 +11226,11 @@
         <v>421024.6950960681</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>487</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11845,17 +11259,11 @@
         <v>425868.8375960682</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>487</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11884,17 +11292,11 @@
         <v>443053.6617960681</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>487</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11923,17 +11325,11 @@
         <v>443054.6617960681</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>487</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11962,17 +11358,11 @@
         <v>442419.5412191754</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>487</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12001,17 +11391,11 @@
         <v>440530.2345191754</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>487</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12040,17 +11424,11 @@
         <v>453906.7611191754</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>487</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12079,17 +11457,11 @@
         <v>453884.8510191754</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>487</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12121,14 +11493,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>487</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12160,14 +11526,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>487</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12199,14 +11559,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>487</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12238,14 +11592,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>487</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12274,17 +11622,11 @@
         <v>450554.8051191754</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>487</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12316,14 +11658,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>487</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12355,14 +11691,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>487</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12394,14 +11724,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>487</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12430,17 +11754,11 @@
         <v>470721.2643191754</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>487</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12469,17 +11787,11 @@
         <v>470524.9201191754</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>487</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12511,14 +11823,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>487</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12547,17 +11853,11 @@
         <v>465542.0872191754</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>487</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12586,17 +11886,11 @@
         <v>463768.3303191754</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>487</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12625,17 +11919,11 @@
         <v>463769.3041191754</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>487</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12664,17 +11952,11 @@
         <v>463446.9289191754</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>487</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12703,17 +11985,11 @@
         <v>467972.8554191754</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>487</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12742,17 +12018,11 @@
         <v>470626.1160191754</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>487</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12781,17 +12051,11 @@
         <v>483953.9071191754</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>487</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12820,17 +12084,11 @@
         <v>483953.9071191754</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>487</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12859,17 +12117,11 @@
         <v>483953.9071191754</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>487</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12898,17 +12150,11 @@
         <v>483953.9071191754</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>487</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12937,17 +12183,11 @@
         <v>483953.9071191754</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>487</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12976,17 +12216,11 @@
         <v>484013.4381191754</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>487</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13018,14 +12252,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>487</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13054,17 +12282,11 @@
         <v>468788.3850191754</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>487</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13096,14 +12318,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>487</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13132,17 +12348,11 @@
         <v>470385.7606191754</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>487</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13171,17 +12381,11 @@
         <v>470654.7606191754</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>487</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13213,14 +12417,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>487</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13252,14 +12450,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>487</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13288,23 +12480,15 @@
         <v>474871.3270191754</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>487</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
-        <v>1.089250513347023</v>
-      </c>
-      <c r="M331" t="n">
-        <v>1.018793067446231</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -13362,7 +12546,7 @@
         <v>471136.9394288958</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -13395,7 +12579,7 @@
         <v>471136.9394288958</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -13428,7 +12612,7 @@
         <v>482083.354133322</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -13461,7 +12645,7 @@
         <v>486175.3934288959</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13494,7 +12678,7 @@
         <v>479725.422085695</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13527,7 +12711,7 @@
         <v>478527.809485695</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13560,7 +12744,7 @@
         <v>478592.786085695</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13593,7 +12777,7 @@
         <v>478592.786085695</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13626,7 +12810,7 @@
         <v>477823.220685695</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13659,7 +12843,7 @@
         <v>477216.262685695</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13692,7 +12876,7 @@
         <v>477588.406985695</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13725,7 +12909,7 @@
         <v>477865.640085695</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13758,7 +12942,7 @@
         <v>477865.640085695</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13791,7 +12975,7 @@
         <v>485024.221085695</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13824,7 +13008,7 @@
         <v>479625.133085695</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13857,7 +13041,7 @@
         <v>477966.220085695</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13890,7 +13074,7 @@
         <v>478817.821785695</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13956,7 +13140,7 @@
         <v>467366.183585695</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13989,7 +13173,7 @@
         <v>473699.3171856951</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -14022,7 +13206,7 @@
         <v>468403.025285695</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -14055,7 +13239,7 @@
         <v>468503.025285695</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -14088,7 +13272,7 @@
         <v>461384.7438856951</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -14121,7 +13305,7 @@
         <v>461387.7438856951</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -14154,7 +13338,7 @@
         <v>461386.7438856951</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -14187,7 +13371,7 @@
         <v>461386.7438856951</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -14220,7 +13404,7 @@
         <v>461386.7438856951</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -14253,7 +13437,7 @@
         <v>461542.9348856951</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -14286,7 +13470,7 @@
         <v>452459.8287856951</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -14319,7 +13503,7 @@
         <v>455204.4401856951</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -14484,7 +13668,7 @@
         <v>452079.7827856951</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14517,7 +13701,7 @@
         <v>455978.6222856951</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14550,7 +13734,7 @@
         <v>456100.6321856951</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14583,7 +13767,7 @@
         <v>451367.9084856951</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14616,7 +13800,7 @@
         <v>454501.0167856952</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14649,7 +13833,7 @@
         <v>456324.4358856952</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14682,7 +13866,7 @@
         <v>457641.5970856951</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14715,7 +13899,7 @@
         <v>457914.1978856951</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14748,7 +13932,7 @@
         <v>460714.2087856951</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14781,7 +13965,7 @@
         <v>441515.9964856951</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14847,7 +14031,7 @@
         <v>446143.9552856951</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14880,7 +14064,7 @@
         <v>463190.8527856952</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14913,7 +14097,7 @@
         <v>462542.7527856952</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14946,7 +14130,7 @@
         <v>462542.7527856952</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14979,7 +14163,7 @@
         <v>460744.6594856952</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -15012,7 +14196,7 @@
         <v>463959.5852856952</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -15045,7 +14229,7 @@
         <v>448319.9610856952</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -15078,7 +14262,7 @@
         <v>451181.5427856952</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -15111,7 +14295,7 @@
         <v>451529.8604856952</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -15144,7 +14328,7 @@
         <v>451529.8604856952</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -15177,7 +14361,7 @@
         <v>451529.8604856952</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -15210,7 +14394,7 @@
         <v>451529.8604856952</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -15243,7 +14427,7 @@
         <v>451529.8604856952</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -15276,7 +14460,7 @@
         <v>450282.1235856952</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -15309,7 +14493,7 @@
         <v>446282.1235856952</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -15342,7 +14526,7 @@
         <v>451616.0983856952</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -15375,7 +14559,7 @@
         <v>448788.9827856952</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -15408,7 +14592,7 @@
         <v>453836.5553856952</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15441,7 +14625,7 @@
         <v>467365.9359671696</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15474,7 +14658,7 @@
         <v>467365.9359671696</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15507,7 +14691,7 @@
         <v>463681.0916671696</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15540,7 +14724,7 @@
         <v>463855.8905671696</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15573,7 +14757,7 @@
         <v>462552.8687671696</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15606,7 +14790,7 @@
         <v>463837.528736289</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15639,7 +14823,7 @@
         <v>463619.338136289</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15672,7 +14856,7 @@
         <v>494275.8031671696</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15705,7 +14889,7 @@
         <v>495492.0198671696</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -16134,7 +15318,7 @@
         <v>489982.7381816873</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -16167,7 +15351,7 @@
         <v>489881.5313816873</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -16233,7 +15417,7 @@
         <v>489318.0814816873</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16266,7 +15450,7 @@
         <v>465957.5788816873</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16299,7 +15483,7 @@
         <v>465957.5788816873</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -16332,7 +15516,7 @@
         <v>474891.9109816873</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16365,7 +15549,7 @@
         <v>472238.9109816873</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16398,7 +15582,7 @@
         <v>476019.4400816873</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16431,7 +15615,7 @@
         <v>476019.4400816873</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16464,7 +15648,7 @@
         <v>476191.8201816873</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16497,7 +15681,7 @@
         <v>475991.8201816873</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16530,7 +15714,7 @@
         <v>475961.0015816873</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16563,7 +15747,7 @@
         <v>475961.0015816873</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16596,7 +15780,7 @@
         <v>475961.0015816873</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -17256,7 +16440,7 @@
         <v>478658.5528816873</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17652,7 +16836,7 @@
         <v>472624.2186816874</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17685,7 +16869,7 @@
         <v>457750.3775816874</v>
       </c>
       <c r="H464" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17718,7 +16902,7 @@
         <v>461260.2159816874</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17751,7 +16935,7 @@
         <v>457713.1422816874</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17784,7 +16968,7 @@
         <v>469774.4129816873</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17817,7 +17001,7 @@
         <v>469778.5670816873</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17850,7 +17034,7 @@
         <v>469695.2680816873</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17883,7 +17067,7 @@
         <v>469706.0659816873</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17949,7 +17133,7 @@
         <v>470311.9659816874</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17982,7 +17166,7 @@
         <v>468375.9967816874</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -18048,7 +17232,7 @@
         <v>468374.9967816874</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -18444,7 +17628,7 @@
         <v>450055.9335816873</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18477,7 +17661,7 @@
         <v>450055.9335816873</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18510,7 +17694,7 @@
         <v>439120.6373816874</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18543,7 +17727,7 @@
         <v>443942.8232816873</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18576,7 +17760,7 @@
         <v>443942.8232816873</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18609,7 +17793,7 @@
         <v>449526.7045816873</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18675,7 +17859,7 @@
         <v>412174.5755849625</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18708,7 +17892,7 @@
         <v>414341.4992849625</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18741,7 +17925,7 @@
         <v>422221.6780849625</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18774,7 +17958,7 @@
         <v>422224.7254849625</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18807,7 +17991,7 @@
         <v>421956.7254849625</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18840,7 +18024,7 @@
         <v>421956.7254849625</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19775,6 +18959,6 @@
       <c r="M527" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest WTC.xlsx
+++ b/BackTest/2020-01-22 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2497.86934763721</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>6897.66734763721</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>478.9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>478.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>1301.30944763721</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>487.7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>478.9</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>3303.30944763721</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>486.2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>478.9</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>3303.30944763721</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>487</v>
-      </c>
-      <c r="J6" t="n">
-        <v>487</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,265 +616,215 @@
         <v>3021.67254763721</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>487</v>
-      </c>
-      <c r="J7" t="n">
-        <v>487</v>
-      </c>
-      <c r="K7" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>484.7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>484.7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>484.7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>484.7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>65.8733</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3087.54584763721</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>478.4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>482</v>
+      </c>
+      <c r="D9" t="n">
+        <v>482</v>
+      </c>
+      <c r="E9" t="n">
+        <v>474</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1922.9157</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1164.63014763721</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>483.6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>483.6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>483.6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>483.6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1165.73014763721</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>477.2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>473</v>
+      </c>
+      <c r="D11" t="n">
+        <v>477.2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>473</v>
+      </c>
+      <c r="F11" t="n">
+        <v>21233.036</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-20067.30585236279</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>473</v>
+      </c>
+      <c r="C12" t="n">
+        <v>473</v>
+      </c>
+      <c r="D12" t="n">
+        <v>473</v>
+      </c>
+      <c r="E12" t="n">
+        <v>473</v>
+      </c>
+      <c r="F12" t="n">
+        <v>117.5292</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-20067.30585236279</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>473.1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>473</v>
+      </c>
+      <c r="D13" t="n">
+        <v>473.1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>473</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8621.034100000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-20067.30585236279</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>473</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>484.7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>484.7</v>
-      </c>
-      <c r="D8" t="n">
-        <v>484.7</v>
-      </c>
-      <c r="E8" t="n">
-        <v>484.7</v>
-      </c>
-      <c r="F8" t="n">
-        <v>65.8733</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3087.54584763721</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>480</v>
-      </c>
-      <c r="J8" t="n">
-        <v>487</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>478.4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>482</v>
-      </c>
-      <c r="D9" t="n">
-        <v>482</v>
-      </c>
-      <c r="E9" t="n">
-        <v>474</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1922.9157</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1164.63014763721</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>484.7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>487</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>483.6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>483.6</v>
-      </c>
-      <c r="D10" t="n">
-        <v>483.6</v>
-      </c>
-      <c r="E10" t="n">
-        <v>483.6</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1165.73014763721</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>482</v>
-      </c>
-      <c r="J10" t="n">
-        <v>487</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>477.2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>473</v>
-      </c>
-      <c r="D11" t="n">
-        <v>477.2</v>
-      </c>
-      <c r="E11" t="n">
-        <v>473</v>
-      </c>
-      <c r="F11" t="n">
-        <v>21233.036</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-20067.30585236279</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>483.6</v>
-      </c>
-      <c r="J11" t="n">
-        <v>487</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>473</v>
-      </c>
-      <c r="C12" t="n">
-        <v>473</v>
-      </c>
-      <c r="D12" t="n">
-        <v>473</v>
-      </c>
-      <c r="E12" t="n">
-        <v>473</v>
-      </c>
-      <c r="F12" t="n">
-        <v>117.5292</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-20067.30585236279</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>473</v>
-      </c>
-      <c r="J12" t="n">
-        <v>487</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>473.1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>473</v>
-      </c>
-      <c r="D13" t="n">
-        <v>473.1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>473</v>
-      </c>
-      <c r="F13" t="n">
-        <v>8621.034100000001</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-20067.30585236279</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>473</v>
-      </c>
-      <c r="J13" t="n">
-        <v>487</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -932,9 +858,7 @@
       <c r="I14" t="n">
         <v>473</v>
       </c>
-      <c r="J14" t="n">
-        <v>487</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -973,9 +897,7 @@
       <c r="I15" t="n">
         <v>476.9</v>
       </c>
-      <c r="J15" t="n">
-        <v>487</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1014,9 +936,7 @@
       <c r="I16" t="n">
         <v>472.5</v>
       </c>
-      <c r="J16" t="n">
-        <v>487</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1055,9 +975,7 @@
       <c r="I17" t="n">
         <v>476.9</v>
       </c>
-      <c r="J17" t="n">
-        <v>487</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1096,9 +1014,7 @@
       <c r="I18" t="n">
         <v>480.3</v>
       </c>
-      <c r="J18" t="n">
-        <v>487</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1137,9 +1053,7 @@
       <c r="I19" t="n">
         <v>482.8</v>
       </c>
-      <c r="J19" t="n">
-        <v>487</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1178,9 +1092,7 @@
       <c r="I20" t="n">
         <v>477.2</v>
       </c>
-      <c r="J20" t="n">
-        <v>487</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1214,14 +1126,10 @@
         <v>52037.92549651538</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>482</v>
-      </c>
-      <c r="J21" t="n">
-        <v>487</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1258,9 +1166,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>487</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1297,9 +1203,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>487</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1336,9 +1240,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>487</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1375,9 +1277,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>487</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1414,9 +1314,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>487</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1453,9 +1351,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>487</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1492,9 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>487</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1531,9 +1425,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>487</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1570,9 +1462,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>487</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1606,20 +1496,16 @@
         <v>211710.0027965154</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>487</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -1645,17 +1531,11 @@
         <v>211710.0027965154</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>487</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1687,14 +1567,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>487</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1726,14 +1600,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>487</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1765,14 +1633,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>487</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1804,14 +1666,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>487</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1843,14 +1699,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>487</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1882,14 +1732,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>487</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1921,14 +1765,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>487</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1960,14 +1798,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>487</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1999,14 +1831,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>487</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2038,14 +1864,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>487</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2077,14 +1897,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>487</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2116,14 +1930,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>487</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2155,14 +1963,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>487</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2194,14 +1996,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>487</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2233,14 +2029,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>487</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2272,14 +2062,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>487</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2311,14 +2095,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>487</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2350,14 +2128,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>487</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2386,17 +2158,11 @@
         <v>220346.9463934602</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>487</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2428,14 +2194,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>487</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2464,17 +2224,11 @@
         <v>210402.5759934602</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>487</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2503,17 +2257,11 @@
         <v>208788.0269934602</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>487</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2542,17 +2290,11 @@
         <v>210847.7463934602</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>487</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2581,17 +2323,11 @@
         <v>211619.7028934602</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>487</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2620,17 +2356,11 @@
         <v>210192.1584934602</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>487</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2662,14 +2392,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>487</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2701,14 +2425,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>487</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2740,14 +2458,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>487</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2779,14 +2491,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>487</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2818,14 +2524,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>487</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2857,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>487</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2896,14 +2590,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>487</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2935,14 +2623,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>487</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2974,14 +2656,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>487</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3013,14 +2689,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>487</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3052,14 +2722,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>487</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3091,14 +2755,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>487</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3130,14 +2788,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>487</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3169,14 +2821,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>487</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3208,14 +2854,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>487</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3247,14 +2887,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>487</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3286,14 +2920,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>487</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3325,14 +2953,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>487</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3364,14 +2986,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>487</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3403,14 +3019,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>487</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3442,14 +3052,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>487</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3481,14 +3085,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>487</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3520,14 +3118,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>487</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3559,14 +3151,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>487</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3598,14 +3184,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>487</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3637,14 +3217,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>487</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3676,14 +3250,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>487</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3715,14 +3283,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>487</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3754,14 +3316,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>487</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3793,14 +3349,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>487</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3832,14 +3382,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>487</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3871,14 +3415,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>487</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3910,14 +3448,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>487</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3949,14 +3481,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>487</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3988,14 +3514,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>487</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4027,14 +3547,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>487</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4066,14 +3580,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>487</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4105,14 +3613,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>487</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4144,14 +3646,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>487</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4183,14 +3679,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>487</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4222,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>487</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4261,14 +3745,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>487</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4300,14 +3778,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>487</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4339,14 +3811,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>487</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4378,14 +3844,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>487</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4417,14 +3877,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>487</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4456,14 +3910,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>487</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4495,14 +3943,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>487</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4534,14 +3976,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>487</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4573,14 +4009,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>487</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4612,14 +4042,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>487</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4651,14 +4075,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>487</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4690,14 +4108,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>487</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4729,14 +4141,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>487</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4768,14 +4174,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>487</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4807,14 +4207,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>487</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4846,14 +4240,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>487</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4885,14 +4273,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>487</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4924,14 +4306,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>487</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4963,14 +4339,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>487</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5002,14 +4372,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>487</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5041,14 +4405,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>487</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5080,14 +4438,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>487</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5119,14 +4471,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>487</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5158,14 +4504,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>487</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5197,14 +4537,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>487</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5236,14 +4570,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>487</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5275,14 +4603,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>487</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5314,14 +4636,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>487</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5353,14 +4669,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>487</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5392,14 +4702,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>487</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5431,14 +4735,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>487</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5470,14 +4768,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>487</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5509,14 +4801,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>487</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5548,14 +4834,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>487</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5587,14 +4867,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>487</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5626,14 +4900,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>487</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5665,14 +4933,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>487</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5704,14 +4966,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>487</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5743,14 +4999,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>487</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5782,14 +5032,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>487</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5821,14 +5065,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>487</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5860,14 +5098,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>487</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5899,14 +5131,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>487</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5938,14 +5164,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>487</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5977,14 +5197,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>487</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6016,14 +5230,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>487</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6055,14 +5263,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>487</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6094,14 +5296,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>487</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6133,14 +5329,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>487</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6172,14 +5362,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>487</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6211,14 +5395,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>487</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6250,14 +5428,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>487</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6289,14 +5461,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>487</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6328,14 +5494,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>487</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6367,14 +5527,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>487</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6406,14 +5560,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>487</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6445,14 +5593,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>487</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6484,14 +5626,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>487</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6523,14 +5659,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>487</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6562,14 +5692,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>487</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6601,14 +5725,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>487</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6640,14 +5758,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>487</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6679,14 +5791,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>487</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6718,14 +5824,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>487</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6757,14 +5857,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>487</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6796,14 +5890,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>487</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6835,14 +5923,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>487</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6874,14 +5956,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>487</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6913,14 +5989,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>487</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6952,14 +6022,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>487</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6991,14 +6055,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>487</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7030,14 +6088,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>487</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7069,14 +6121,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>487</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7108,14 +6154,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>487</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7147,14 +6187,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>487</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7186,14 +6220,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>487</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7225,14 +6253,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>487</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7264,14 +6286,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>487</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7303,14 +6319,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>487</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7342,14 +6352,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>487</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7381,14 +6385,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>487</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7420,14 +6418,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>487</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7459,14 +6451,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>487</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7498,14 +6484,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>487</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7537,14 +6517,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>487</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7576,14 +6550,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>487</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7615,14 +6583,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>487</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7654,14 +6616,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>487</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7693,14 +6649,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>487</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7732,14 +6682,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>487</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7771,14 +6715,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>487</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7810,14 +6748,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>487</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7849,14 +6781,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>487</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7885,23 +6811,15 @@
         <v>244664.1922530091</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>487</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
-        <v>1.075082135523614</v>
-      </c>
-      <c r="M192" t="n">
-        <v>1.018793067446231</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7926,7 +6844,7 @@
         <v>244477.7877530091</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -8190,7 +7108,7 @@
         <v>279425.0227530091</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -8223,7 +7141,7 @@
         <v>280425.0227530091</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8256,7 +7174,7 @@
         <v>280844.0047530091</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8289,7 +7207,7 @@
         <v>280844.0047530091</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8520,7 +7438,7 @@
         <v>277133.8681530091</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8553,7 +7471,7 @@
         <v>278299.9061530091</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8586,7 +7504,7 @@
         <v>278299.9061530091</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8619,7 +7537,7 @@
         <v>277810.6449937726</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8652,7 +7570,7 @@
         <v>277809.6799937726</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8685,7 +7603,7 @@
         <v>275100.7225937726</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8718,7 +7636,7 @@
         <v>276340.0183937726</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8751,7 +7669,7 @@
         <v>276310.0183937726</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8784,7 +7702,7 @@
         <v>277455.7275937726</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8817,7 +7735,7 @@
         <v>280823.2594937726</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8850,7 +7768,7 @@
         <v>285392.2601937726</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8883,7 +7801,7 @@
         <v>285192.2601937726</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8916,7 +7834,7 @@
         <v>286127.7168937725</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8949,7 +7867,7 @@
         <v>289486.9261937725</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8982,7 +7900,7 @@
         <v>301829.9591937725</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -9015,7 +7933,7 @@
         <v>301829.9591937725</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -9048,7 +7966,7 @@
         <v>309276.426141631</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -9081,7 +7999,7 @@
         <v>303714.0623474664</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9114,7 +8032,7 @@
         <v>305884.8940777201</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9147,7 +8065,7 @@
         <v>305884.8940777201</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -9180,7 +8098,7 @@
         <v>305417.7710777201</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -9213,7 +8131,7 @@
         <v>305399.3048777201</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9246,7 +8164,7 @@
         <v>304786.4050777201</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9279,7 +8197,7 @@
         <v>304855.3901777201</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9312,7 +8230,7 @@
         <v>304855.3901777201</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9345,7 +8263,7 @@
         <v>301303.2043777201</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9378,7 +8296,7 @@
         <v>330643.547643707</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9411,7 +8329,7 @@
         <v>329227.517643707</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9444,7 +8362,7 @@
         <v>328423.970843707</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9477,7 +8395,7 @@
         <v>328423.970843707</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9510,7 +8428,7 @@
         <v>324063.622743707</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9543,7 +8461,7 @@
         <v>324064.859243707</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9576,7 +8494,7 @@
         <v>324042.440543707</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9609,7 +8527,7 @@
         <v>316960.660343707</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9642,7 +8560,7 @@
         <v>318346.791443707</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9675,7 +8593,7 @@
         <v>318346.791443707</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9708,7 +8626,7 @@
         <v>314520.646043707</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9741,7 +8659,7 @@
         <v>334242.3610437071</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9774,7 +8692,7 @@
         <v>330690.9028437071</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9807,7 +8725,7 @@
         <v>330688.9028437071</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9840,7 +8758,7 @@
         <v>331018.7978437071</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9873,7 +8791,7 @@
         <v>331008.7978437071</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9906,7 +8824,7 @@
         <v>330980.0708437071</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9939,7 +8857,7 @@
         <v>319073.6101437071</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9972,7 +8890,7 @@
         <v>328530.8678437071</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10005,7 +8923,7 @@
         <v>380462.4134960681</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10038,7 +8956,7 @@
         <v>388099.4262960681</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10071,7 +8989,7 @@
         <v>393079.5330960681</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10104,7 +9022,7 @@
         <v>388815.8687960681</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10137,7 +9055,7 @@
         <v>356748.1884960681</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10170,7 +9088,7 @@
         <v>353240.5708960681</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10203,7 +9121,7 @@
         <v>360336.3529960681</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10236,7 +9154,7 @@
         <v>358314.0479960681</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10269,7 +9187,7 @@
         <v>358078.2681960681</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10302,7 +9220,7 @@
         <v>373861.9152960681</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10335,7 +9253,7 @@
         <v>365691.2317960681</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10368,7 +9286,7 @@
         <v>365704.5012960681</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10401,7 +9319,7 @@
         <v>344080.9867960681</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10434,7 +9352,7 @@
         <v>344995.3792960682</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10467,7 +9385,7 @@
         <v>363374.2518960682</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10500,7 +9418,7 @@
         <v>437753.8562960682</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10566,7 +9484,7 @@
         <v>422096.0418960682</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10599,7 +9517,7 @@
         <v>427571.1383960682</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10632,7 +9550,7 @@
         <v>424302.8039960682</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10665,7 +9583,7 @@
         <v>417926.0270960682</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10698,7 +9616,7 @@
         <v>400419.4171960682</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10731,7 +9649,7 @@
         <v>394965.2382960682</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10764,7 +9682,7 @@
         <v>398315.4475960682</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10797,7 +9715,7 @@
         <v>398407.1058960682</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10830,7 +9748,7 @@
         <v>407819.2051960682</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10863,7 +9781,7 @@
         <v>407817.4198960682</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10896,7 +9814,7 @@
         <v>412002.2440960682</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10929,7 +9847,7 @@
         <v>413490.2440960682</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10962,7 +9880,7 @@
         <v>413489.2440960682</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10995,7 +9913,7 @@
         <v>396699.6483960682</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11028,7 +9946,7 @@
         <v>397257.2566960682</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11061,7 +9979,7 @@
         <v>423414.9967960682</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11094,7 +10012,7 @@
         <v>423401.9684960682</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11127,7 +10045,7 @@
         <v>422847.8553960682</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11160,7 +10078,7 @@
         <v>424154.0135960682</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11193,7 +10111,7 @@
         <v>429665.4713960682</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11226,7 +10144,7 @@
         <v>421024.6950960681</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11259,7 +10177,7 @@
         <v>425868.8375960682</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11292,7 +10210,7 @@
         <v>443053.6617960681</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11325,7 +10243,7 @@
         <v>443054.6617960681</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11358,7 +10276,7 @@
         <v>442419.5412191754</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11391,7 +10309,7 @@
         <v>440530.2345191754</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11424,7 +10342,7 @@
         <v>453906.7611191754</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11457,7 +10375,7 @@
         <v>453884.8510191754</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11787,7 +10705,7 @@
         <v>470524.9201191754</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11919,7 +10837,7 @@
         <v>463769.3041191754</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11952,7 +10870,7 @@
         <v>463446.9289191754</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11985,7 +10903,7 @@
         <v>467972.8554191754</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12018,7 +10936,7 @@
         <v>470626.1160191754</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12051,7 +10969,7 @@
         <v>483953.9071191754</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12084,7 +11002,7 @@
         <v>483953.9071191754</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12117,7 +11035,7 @@
         <v>483953.9071191754</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12150,7 +11068,7 @@
         <v>483953.9071191754</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12183,7 +11101,7 @@
         <v>483953.9071191754</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12216,7 +11134,7 @@
         <v>484013.4381191754</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12546,7 +11464,7 @@
         <v>471136.9394288958</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12579,7 +11497,7 @@
         <v>471136.9394288958</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12612,7 +11530,7 @@
         <v>482083.354133322</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12645,7 +11563,7 @@
         <v>486175.3934288959</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12678,7 +11596,7 @@
         <v>479725.422085695</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12711,7 +11629,7 @@
         <v>478527.809485695</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12744,7 +11662,7 @@
         <v>478592.786085695</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12777,7 +11695,7 @@
         <v>478592.786085695</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12810,7 +11728,7 @@
         <v>477823.220685695</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12843,7 +11761,7 @@
         <v>477216.262685695</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12876,7 +11794,7 @@
         <v>477588.406985695</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12909,7 +11827,7 @@
         <v>477865.640085695</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12942,7 +11860,7 @@
         <v>477865.640085695</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12975,7 +11893,7 @@
         <v>485024.221085695</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13008,7 +11926,7 @@
         <v>479625.133085695</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13041,7 +11959,7 @@
         <v>477966.220085695</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13074,7 +11992,7 @@
         <v>478817.821785695</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13140,7 +12058,7 @@
         <v>467366.183585695</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13173,7 +12091,7 @@
         <v>473699.3171856951</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13206,7 +12124,7 @@
         <v>468403.025285695</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13239,7 +12157,7 @@
         <v>468503.025285695</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13272,7 +12190,7 @@
         <v>461384.7438856951</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13305,7 +12223,7 @@
         <v>461387.7438856951</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13338,7 +12256,7 @@
         <v>461386.7438856951</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13371,7 +12289,7 @@
         <v>461386.7438856951</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13404,7 +12322,7 @@
         <v>461386.7438856951</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13437,7 +12355,7 @@
         <v>461542.9348856951</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13470,7 +12388,7 @@
         <v>452459.8287856951</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13503,7 +12421,7 @@
         <v>455204.4401856951</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -14064,7 +12982,7 @@
         <v>463190.8527856952</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14130,7 +13048,7 @@
         <v>462542.7527856952</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14163,7 +13081,7 @@
         <v>460744.6594856952</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14196,7 +13114,7 @@
         <v>463959.5852856952</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14229,7 +13147,7 @@
         <v>448319.9610856952</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14262,7 +13180,7 @@
         <v>451181.5427856952</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14295,7 +13213,7 @@
         <v>451529.8604856952</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14328,7 +13246,7 @@
         <v>451529.8604856952</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14361,7 +13279,7 @@
         <v>451529.8604856952</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14394,7 +13312,7 @@
         <v>451529.8604856952</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14427,7 +13345,7 @@
         <v>451529.8604856952</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14460,7 +13378,7 @@
         <v>450282.1235856952</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14493,7 +13411,7 @@
         <v>446282.1235856952</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14526,7 +13444,7 @@
         <v>451616.0983856952</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14559,7 +13477,7 @@
         <v>448788.9827856952</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14592,7 +13510,7 @@
         <v>453836.5553856952</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14625,7 +13543,7 @@
         <v>467365.9359671696</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14658,7 +13576,7 @@
         <v>467365.9359671696</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14691,7 +13609,7 @@
         <v>463681.0916671696</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14724,7 +13642,7 @@
         <v>463855.8905671696</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14757,7 +13675,7 @@
         <v>462552.8687671696</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14790,7 +13708,7 @@
         <v>463837.528736289</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14823,7 +13741,7 @@
         <v>463619.338136289</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14856,7 +13774,7 @@
         <v>494275.8031671696</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14889,7 +13807,7 @@
         <v>495492.0198671696</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15318,7 +14236,7 @@
         <v>489982.7381816873</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15351,7 +14269,7 @@
         <v>489881.5313816873</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15417,7 +14335,7 @@
         <v>489318.0814816873</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15450,7 +14368,7 @@
         <v>465957.5788816873</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15483,7 +14401,7 @@
         <v>465957.5788816873</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15516,7 +14434,7 @@
         <v>474891.9109816873</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15549,7 +14467,7 @@
         <v>472238.9109816873</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15582,7 +14500,7 @@
         <v>476019.4400816873</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15615,7 +14533,7 @@
         <v>476019.4400816873</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15648,7 +14566,7 @@
         <v>476191.8201816873</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15681,7 +14599,7 @@
         <v>475991.8201816873</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15714,7 +14632,7 @@
         <v>475961.0015816873</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15747,7 +14665,7 @@
         <v>475961.0015816873</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15780,7 +14698,7 @@
         <v>475961.0015816873</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16836,7 +15754,7 @@
         <v>472624.2186816874</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16869,7 +15787,7 @@
         <v>457750.3775816874</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16902,7 +15820,7 @@
         <v>461260.2159816874</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16935,7 +15853,7 @@
         <v>457713.1422816874</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16968,7 +15886,7 @@
         <v>469774.4129816873</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17001,7 +15919,7 @@
         <v>469778.5670816873</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17034,7 +15952,7 @@
         <v>469695.2680816873</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17067,7 +15985,7 @@
         <v>469706.0659816873</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17133,7 +16051,7 @@
         <v>470311.9659816874</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17166,7 +16084,7 @@
         <v>468375.9967816874</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17232,7 +16150,7 @@
         <v>468374.9967816874</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17628,7 +16546,7 @@
         <v>450055.9335816873</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17661,7 +16579,7 @@
         <v>450055.9335816873</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17694,7 +16612,7 @@
         <v>439120.6373816874</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17727,7 +16645,7 @@
         <v>443942.8232816873</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17760,7 +16678,7 @@
         <v>443942.8232816873</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17793,7 +16711,7 @@
         <v>449526.7045816873</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17859,7 +16777,7 @@
         <v>412174.5755849625</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17892,7 +16810,7 @@
         <v>414341.4992849625</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17925,7 +16843,7 @@
         <v>422221.6780849625</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17958,7 +16876,7 @@
         <v>422224.7254849625</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17991,7 +16909,7 @@
         <v>421956.7254849625</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18024,7 +16942,7 @@
         <v>421956.7254849625</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18959,6 +17877,6 @@
       <c r="M527" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>